--- a/medicine/Psychotrope/Château_Gruaud_Larose/Château_Gruaud_Larose.xlsx
+++ b/medicine/Psychotrope/Château_Gruaud_Larose/Château_Gruaud_Larose.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Gruaud_Larose</t>
+          <t>Château_Gruaud_Larose</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Château Gruaud Larose est un château et un domaine viticole situé à Saint-Julien-Beychevelle en Gironde. Son vin AOC saint-julien est classé deuxième grand cru au classement de 1855.
-Le château, avec la tour et le hangar agricole, a été inscrit à la liste des monuments historiques par arrêté du 22 février 2012[1],[2]. Il appartient actuellement à la famille Merlaut depuis 1997.
+Le château, avec la tour et le hangar agricole, a été inscrit à la liste des monuments historiques par arrêté du 22 février 2012,. Il appartient actuellement à la famille Merlaut depuis 1997.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Gruaud_Larose</t>
+          <t>Château_Gruaud_Larose</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Histoire du domaine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les premiers écrits qui attestent l’existence du château remontent à 1742. Mais la création du domaine par l'abbé Joseph Stanislas Gruaud daterait de 1725. Dès les années 1750, la propriété du sieur Gruaud apparaît déjà en bonne place dans le registre de courtage d’Abraham Lawton, préfigurant le classement de 1855. L'abbé Gruaud acquiert en 1757 une surface d’exploitation d'environ 50 hectares. La propriété prend alors le nom de « Fonbedeau », bien que l’on retrouve régulièrement l’appellation Gruaud.
 À la mort du fondateur, le 6 septembre 1771, son unique héritier, Joseph-Sébastien de Larose, élu du présidial de Bordeaux et lieutenant général de la sénéchaussée de Guyenne devient propriétaire du domaine Fonbedeau. Le nom de Larose n'apparaît qu'en 1791.
@@ -525,7 +539,7 @@
 			La chartreuse d'origine en 1838.
 			L'ancienne chartreuse vers 1867.
 			Le château en 1893.
-Le château est reconstruit en 1879, comme l'indique la date portée sur la façade postérieure[3].
+Le château est reconstruit en 1879, comme l'indique la date portée sur la façade postérieure.
 Après une longue période de crise dans le Médoc qui débute en 1890, de nombreux domaines dont Graud-Larose sont obligés, pour assurer un minimum de revenus, de vendre à l’avance leur récolte, par la technique des abonnements. Gruaud-Larose Sarget recouvre sa « liberté » en 1916, et Gruaud-Larose Bethmann en 1919.
 En 1917, Désiré Cordier, négociant en vin de l’est de la France se porte acquéreur du château Gruaud Larose Sarget. La famille investit dans tout le vignoble Bordelais, et achète ainsi à la même époque les châteaux Fanning-Lafontaine dans les Graves, Lafaurie-Peyraguey dans le Sauternais, Talbot à Saint-Julien-Beychevelle et Meyney à Saint-Estèphe. Désiré Cordier achète en 1935 Gruaud-Larose Bethmann et reconstitue ainsi le domaine initial du fondateur.
 À la mort de Désiré Cordier en 1940, Paul et Henri Lemaire gèrent alors le domaine, jusqu’à la nomination, en 1947, de Jean Cordier, son petit-fils à la tête de Gruaud-Larose. Dès sa prise de fonction, Jean Cordier modernise la gestion du château, accroît sa notoriété et renouvèle la plus grande partie du vignoble. Agrandi, rajeuni et rénové, le domaine produira des récoltes plus abondantes, notamment grâce à la plantation de cabernet-sauvignon de manière majoritaire.
@@ -541,7 +555,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Gruaud_Larose</t>
+          <t>Château_Gruaud_Larose</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -559,7 +573,9 @@
           <t>Terroir</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le vignoble de Château Gruaud-Larose présente un encépagement constitué à 60 % de cabernet Sauvignon, 30 % de merlot, 7 % de cabernet franc, et 3 % de petit verdot.
 </t>
@@ -572,7 +588,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Gruaud_Larose</t>
+          <t>Château_Gruaud_Larose</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -590,7 +606,9 @@
           <t>Vins</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le premier vin séjourne 18 mois dans des barriques de chêne français en moyennes neuves à 90 %.
 Quelques grands millésimes sont restés comme exceptionnels à Gruaud-Larose, comme dans tout le Bordelais, tels 1961, 1982, 1986 ou 1989.[réf. nécessaire]
@@ -609,7 +627,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Gruaud_Larose</t>
+          <t>Château_Gruaud_Larose</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -627,9 +645,11 @@
           <t>Œnotourisme</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Château Gruaud Larose a mis en place un service oenotouristique en 2009[4] avec dégustation.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Château Gruaud Larose a mis en place un service oenotouristique en 2009 avec dégustation.
 </t>
         </is>
       </c>
